--- a/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/CoPsoQ-Estudios-trans_orig.xlsx
@@ -743,19 +743,19 @@
         <v>91854</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>78975</v>
+        <v>79525</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>105005</v>
+        <v>106661</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.5170214856511086</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4445305558751287</v>
+        <v>0.4476274828436914</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5910441647162216</v>
+        <v>0.6003680463082475</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>46</v>
@@ -764,19 +764,19 @@
         <v>48983</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>36961</v>
+        <v>37604</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>60576</v>
+        <v>61318</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3683935302275666</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2779766255611105</v>
+        <v>0.2828101266925181</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4555769437108239</v>
+        <v>0.4611608656401221</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>132</v>
@@ -785,19 +785,19 @@
         <v>140837</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>124574</v>
+        <v>121088</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>158928</v>
+        <v>158536</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.4534002398829859</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4010434820779489</v>
+        <v>0.3898210631257155</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.511639716748487</v>
+        <v>0.5103768028796489</v>
       </c>
     </row>
     <row r="5">
@@ -814,19 +814,19 @@
         <v>32587</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>23627</v>
+        <v>23162</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44373</v>
+        <v>42719</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1834210204389217</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1329872124495106</v>
+        <v>0.1303715668031918</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2497626843456018</v>
+        <v>0.2404538112309891</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>30</v>
@@ -835,19 +835,19 @@
         <v>33617</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>23902</v>
+        <v>23623</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>45074</v>
+        <v>44550</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2528273133654308</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1797593446445072</v>
+        <v>0.1776608149915568</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3389904840507887</v>
+        <v>0.3350497389819427</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>63</v>
@@ -856,19 +856,19 @@
         <v>66204</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>52334</v>
+        <v>53074</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>81872</v>
+        <v>81807</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.213130874197916</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1684795214302999</v>
+        <v>0.1708635471148913</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.263572509666678</v>
+        <v>0.2633618271572657</v>
       </c>
     </row>
     <row r="6">
@@ -885,19 +885,19 @@
         <v>53219</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>41443</v>
+        <v>40914</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>64769</v>
+        <v>66014</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2995574939099697</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2332730684850835</v>
+        <v>0.2302925758569739</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.364567921400748</v>
+        <v>0.3715752101228425</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>47</v>
@@ -906,19 +906,19 @@
         <v>50364</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>39081</v>
+        <v>39942</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>62379</v>
+        <v>61344</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.3787791564070026</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.2939190339216285</v>
+        <v>0.3003934162879808</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4691406656951865</v>
+        <v>0.461357456414209</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>98</v>
@@ -927,19 +927,19 @@
         <v>103584</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>86115</v>
+        <v>87722</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>120462</v>
+        <v>121453</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.3334688859190981</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2772306869429492</v>
+        <v>0.2824058190643445</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.387803875459457</v>
+        <v>0.3909945837809659</v>
       </c>
     </row>
     <row r="7">
@@ -1031,19 +1031,19 @@
         <v>510147</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>479365</v>
+        <v>479666</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>541499</v>
+        <v>542074</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.5706750161289297</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.536241237982833</v>
+        <v>0.536578094826712</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6057470921408064</v>
+        <v>0.6063901065747899</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>297</v>
@@ -1052,19 +1052,19 @@
         <v>318164</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>295179</v>
+        <v>295045</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>343892</v>
+        <v>342283</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5646103544570944</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5238223358170345</v>
+        <v>0.5235843044267606</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.610268282133582</v>
+        <v>0.6074132425565556</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>790</v>
@@ -1073,19 +1073,19 @@
         <v>828311</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>785044</v>
+        <v>788925</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>865403</v>
+        <v>864755</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5683301644673856</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5386436660182112</v>
+        <v>0.5413062767285445</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5937803061090683</v>
+        <v>0.5933361125552804</v>
       </c>
     </row>
     <row r="9">
@@ -1102,19 +1102,19 @@
         <v>173103</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>148282</v>
+        <v>147409</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>198126</v>
+        <v>197226</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.1936415318579474</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1658759525199164</v>
+        <v>0.1648989935560026</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2216331257764322</v>
+        <v>0.2206266578836102</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>113</v>
@@ -1123,19 +1123,19 @@
         <v>121005</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>101816</v>
+        <v>100276</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>141002</v>
+        <v>140379</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.214733801145829</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1806820076065972</v>
+        <v>0.1779495381601817</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2502212161103888</v>
+        <v>0.2491156413384483</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>275</v>
@@ -1144,19 +1144,19 @@
         <v>294108</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>262862</v>
+        <v>262360</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>330223</v>
+        <v>325942</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2017966846697048</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.1803582594360153</v>
+        <v>0.1800134691039151</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2265767806140723</v>
+        <v>0.2236392493541831</v>
       </c>
     </row>
     <row r="10">
@@ -1173,19 +1173,19 @@
         <v>210686</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>183150</v>
+        <v>184616</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>237837</v>
+        <v>239894</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2356834520131229</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.204880542296163</v>
+        <v>0.2065200655224753</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2660563594401674</v>
+        <v>0.2683567502173047</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>116</v>
@@ -1194,19 +1194,19 @@
         <v>124342</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>103773</v>
+        <v>104919</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>143687</v>
+        <v>143833</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2206558443970766</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1841555441397252</v>
+        <v>0.1861881554665706</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2549864467539544</v>
+        <v>0.2552447464491456</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>308</v>
@@ -1215,19 +1215,19 @@
         <v>335028</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>299892</v>
+        <v>304856</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>369162</v>
+        <v>370743</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2298731508629096</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2057656888015354</v>
+        <v>0.2091711482203257</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2532938480672972</v>
+        <v>0.2543786837495797</v>
       </c>
     </row>
     <row r="11">
@@ -1319,19 +1319,19 @@
         <v>204101</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>185323</v>
+        <v>185981</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>222257</v>
+        <v>223284</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.6493434924163857</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5896009632889935</v>
+        <v>0.591693738824484</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.7071072818884179</v>
+        <v>0.710372742169737</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>121</v>
@@ -1340,19 +1340,19 @@
         <v>134964</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>118673</v>
+        <v>118998</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>149767</v>
+        <v>150742</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5906454653975847</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5193487817866865</v>
+        <v>0.5207729808688183</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6554271139034865</v>
+        <v>0.6596956879333168</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>306</v>
@@ -1361,19 +1361,19 @@
         <v>339065</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>314424</v>
+        <v>312385</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>364965</v>
+        <v>360686</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.6246343228337579</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5792395963834287</v>
+        <v>0.57548362333803</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.6723476999363653</v>
+        <v>0.6644642492335692</v>
       </c>
     </row>
     <row r="13">
@@ -1390,19 +1390,19 @@
         <v>61550</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>47180</v>
+        <v>46323</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>79615</v>
+        <v>76609</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.1958202744294999</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1501020118699765</v>
+        <v>0.147376878958031</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2532920835205454</v>
+        <v>0.2437297292888912</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>45</v>
@@ -1411,19 +1411,19 @@
         <v>50120</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>38211</v>
+        <v>37524</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>64414</v>
+        <v>64757</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2193416690575098</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1672249557784085</v>
+        <v>0.1642151204930907</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2818957986588153</v>
+        <v>0.283395585816706</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>100</v>
@@ -1432,19 +1432,19 @@
         <v>111670</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>93036</v>
+        <v>91302</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>134468</v>
+        <v>131596</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2057216997107491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1713937773529182</v>
+        <v>0.1681991751311318</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2477209910053145</v>
+        <v>0.2424300118134445</v>
       </c>
     </row>
     <row r="14">
@@ -1461,19 +1461,19 @@
         <v>48668</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>35949</v>
+        <v>36289</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>63705</v>
+        <v>65179</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.1548362331541144</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1143695792028433</v>
+        <v>0.1154516361244903</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2026770077143543</v>
+        <v>0.2073666558947649</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>38</v>
@@ -1482,19 +1482,19 @@
         <v>43419</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>30577</v>
+        <v>31989</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>57688</v>
+        <v>57126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.1900128655449056</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1338137979103901</v>
+        <v>0.139994635108701</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2524608426729429</v>
+        <v>0.2500031368657566</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>82</v>
@@ -1503,19 +1503,19 @@
         <v>92086</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>73731</v>
+        <v>74694</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>111789</v>
+        <v>110641</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.169643977455493</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.1358292171670142</v>
+        <v>0.1376037023548348</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.2059406507756327</v>
+        <v>0.203825376110152</v>
       </c>
     </row>
     <row r="15">
@@ -1607,19 +1607,19 @@
         <v>806102</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>767553</v>
+        <v>767074</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>844173</v>
+        <v>843369</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5816388552464071</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5538239386268334</v>
+        <v>0.5534782867867692</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.6091088095154771</v>
+        <v>0.6085287758466619</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>464</v>
@@ -1628,19 +1628,19 @@
         <v>502111</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>472274</v>
+        <v>471400</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>533397</v>
+        <v>535839</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5428359247719069</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5105786630657272</v>
+        <v>0.5096340372862053</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5766594397959022</v>
+        <v>0.57929886167561</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1228</v>
@@ -1649,19 +1649,19 @@
         <v>1308213</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1257067</v>
+        <v>1256532</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1354473</v>
+        <v>1353629</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5661072615322678</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5439744519389743</v>
+        <v>0.5437429296050121</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5861255168328399</v>
+        <v>0.5857600492927389</v>
       </c>
     </row>
     <row r="17">
@@ -1678,19 +1678,19 @@
         <v>267240</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>236344</v>
+        <v>237389</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>298393</v>
+        <v>299666</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.1928255003793436</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.1705326096882007</v>
+        <v>0.1712866996791996</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.2153042884648265</v>
+        <v>0.2162222512257126</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>188</v>
@@ -1699,19 +1699,19 @@
         <v>204742</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>179460</v>
+        <v>176550</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>230832</v>
+        <v>229671</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2213480325125864</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.1940149506116427</v>
+        <v>0.1908696188671804</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2495539053555337</v>
+        <v>0.2482986606079227</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>438</v>
@@ -1720,19 +1720,19 @@
         <v>471982</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>430173</v>
+        <v>433518</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>509059</v>
+        <v>515829</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2042421736917661</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.1861502195775166</v>
+        <v>0.187597799349841</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2202866791992105</v>
+        <v>0.2232163460655986</v>
       </c>
     </row>
     <row r="18">
@@ -1749,19 +1749,19 @@
         <v>312573</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>283671</v>
+        <v>279705</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>349309</v>
+        <v>345082</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2255356443742493</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2046814377925514</v>
+        <v>0.2018199175711558</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2520420886520174</v>
+        <v>0.2489918715373111</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>201</v>
@@ -1770,19 +1770,19 @@
         <v>218125</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>193586</v>
+        <v>193564</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>243161</v>
+        <v>243061</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2358160427155067</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.209287263432721</v>
+        <v>0.2092632799427085</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2628830674101534</v>
+        <v>0.2627750785074418</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>488</v>
@@ -1791,19 +1791,19 @@
         <v>530698</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>491255</v>
+        <v>489518</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>574556</v>
+        <v>572193</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2296505647759662</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2125823582385226</v>
+        <v>0.2118307115462754</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2486293699008288</v>
+        <v>0.2476070142448845</v>
       </c>
     </row>
     <row r="19">
@@ -2134,19 +2134,19 @@
         <v>68437</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57272</v>
+        <v>56486</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>80022</v>
+        <v>80897</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.4843442502200331</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.4053264134509303</v>
+        <v>0.3997611168766046</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.5663286427115699</v>
+        <v>0.5725267732287828</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>32</v>
@@ -2155,19 +2155,19 @@
         <v>32061</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>23937</v>
+        <v>24113</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>40641</v>
+        <v>41003</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.463791969168682</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.34627271427052</v>
+        <v>0.3488185934792831</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.5879147930795607</v>
+        <v>0.5931530495523225</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>95</v>
@@ -2176,19 +2176,19 @@
         <v>100498</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>85005</v>
+        <v>85579</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>115160</v>
+        <v>114689</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.477592534027156</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.4039622786683015</v>
+        <v>0.4066918385305804</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.5472685076909967</v>
+        <v>0.5450287229782076</v>
       </c>
     </row>
     <row r="5">
@@ -2205,19 +2205,19 @@
         <v>39778</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>28955</v>
+        <v>29978</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>50970</v>
+        <v>52586</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.281518513347813</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.2049211387320962</v>
+        <v>0.2121589696239372</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.3607255385821873</v>
+        <v>0.3721642574414556</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>17</v>
@@ -2226,19 +2226,19 @@
         <v>16555</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>10062</v>
+        <v>10286</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>24099</v>
+        <v>25087</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2394818996866924</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1455542371809607</v>
+        <v>0.1487947737882164</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3486175095797791</v>
+        <v>0.3629005981057462</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>54</v>
@@ -2247,19 +2247,19 @@
         <v>56333</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>43042</v>
+        <v>43988</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>69689</v>
+        <v>68109</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.267708888788847</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.2045473111156179</v>
+        <v>0.2090405729598542</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3311809828280026</v>
+        <v>0.3236685853666069</v>
       </c>
     </row>
     <row r="6">
@@ -2276,19 +2276,19 @@
         <v>33083</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>23699</v>
+        <v>23869</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>43699</v>
+        <v>43995</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.2341372364321539</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.1677249984603689</v>
+        <v>0.1689237120158008</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.3092639719104901</v>
+        <v>0.311358274689808</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>20</v>
@@ -2297,19 +2297,19 @@
         <v>20512</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>13368</v>
+        <v>13959</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>29372</v>
+        <v>29405</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2967261311446256</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.1933847366510291</v>
+        <v>0.2019229799464337</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4248994141634865</v>
+        <v>0.4253766970239048</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>52</v>
@@ -2318,19 +2318,19 @@
         <v>53595</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>40208</v>
+        <v>40937</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>65509</v>
+        <v>66527</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.2546985771839971</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.1910758073593173</v>
+        <v>0.1945439350275884</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.3113164323375545</v>
+        <v>0.316150870727034</v>
       </c>
     </row>
     <row r="7">
@@ -2422,19 +2422,19 @@
         <v>509064</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>478211</v>
+        <v>476037</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>539833</v>
+        <v>537144</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.551412037948796</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5179922379602472</v>
+        <v>0.5156369812482368</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.5847399705935937</v>
+        <v>0.5818275031612717</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>360</v>
@@ -2443,19 +2443,19 @@
         <v>369784</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>342559</v>
+        <v>344721</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>396195</v>
+        <v>393940</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5684242392703855</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.526573789638574</v>
+        <v>0.529898053815975</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6090219718875099</v>
+        <v>0.6055561368018347</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>840</v>
@@ -2464,19 +2464,19 @@
         <v>878849</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>841239</v>
+        <v>833835</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>919903</v>
+        <v>915521</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5584444213379709</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5345462375976403</v>
+        <v>0.5298411649888821</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.5845312495794907</v>
+        <v>0.5817464783740393</v>
       </c>
     </row>
     <row r="9">
@@ -2493,19 +2493,19 @@
         <v>208172</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>180687</v>
+        <v>182768</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>233366</v>
+        <v>235536</v>
       </c>
       <c r="G9" s="6" t="n">
         <v>0.2254894868842624</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.1957179867225332</v>
+        <v>0.1979724641677866</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.2527790776816966</v>
+        <v>0.2551300648519313</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>136</v>
@@ -2514,19 +2514,19 @@
         <v>139056</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>119550</v>
+        <v>118957</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>161150</v>
+        <v>159388</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2137530277649512</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.1837694865694351</v>
+        <v>0.1828586496612087</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.2477162814385678</v>
+        <v>0.2450072615681134</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>325</v>
@@ -2535,19 +2535,19 @@
         <v>347228</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>315512</v>
+        <v>313881</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>382877</v>
+        <v>383394</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2206379524709215</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.200484994129012</v>
+        <v>0.1994483250903019</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.2432903554118503</v>
+        <v>0.2436189728876508</v>
       </c>
     </row>
     <row r="10">
@@ -2564,19 +2564,19 @@
         <v>205965</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>178396</v>
+        <v>182574</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>231364</v>
+        <v>232111</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2230984751669416</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.1932359378634344</v>
+        <v>0.197762350155539</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2506110200659297</v>
+        <v>0.2514195295731562</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>140</v>
@@ -2585,19 +2585,19 @@
         <v>141703</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>120675</v>
+        <v>120993</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>164945</v>
+        <v>163577</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2178227329646633</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.1854990006892967</v>
+        <v>0.1859878396997197</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.2535500392792376</v>
+        <v>0.2514465363938925</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>334</v>
@@ -2606,19 +2606,19 @@
         <v>347668</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>316097</v>
+        <v>314811</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>380956</v>
+        <v>386014</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2209176261911076</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2008565002053393</v>
+        <v>0.2000396754737453</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2420698205240596</v>
+        <v>0.2452834809025375</v>
       </c>
     </row>
     <row r="11">
@@ -2710,19 +2710,19 @@
         <v>197928</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>176393</v>
+        <v>177529</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>215582</v>
+        <v>217268</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5680447005467072</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5062390710436352</v>
+        <v>0.5094997244272411</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.6187105435458552</v>
+        <v>0.6235498710475116</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>161</v>
@@ -2731,19 +2731,19 @@
         <v>164495</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>146647</v>
+        <v>144476</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>182156</v>
+        <v>181529</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5332905662167388</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.4754266115892332</v>
+        <v>0.4683887601769603</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5905462954743973</v>
+        <v>0.5885134100846958</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>343</v>
@@ -2752,19 +2752,19 @@
         <v>362423</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>336607</v>
+        <v>335324</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>388559</v>
+        <v>388922</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5517253729079971</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5124241357205088</v>
+        <v>0.5104717365638965</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5915116386697248</v>
+        <v>0.5920653968739301</v>
       </c>
     </row>
     <row r="13">
@@ -2781,19 +2781,19 @@
         <v>71807</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>57251</v>
+        <v>58008</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>89112</v>
+        <v>89254</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2060818319375453</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1643064022923351</v>
+        <v>0.1664806116768187</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2557456510857806</v>
+        <v>0.2561539003083651</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>66</v>
@@ -2802,19 +2802,19 @@
         <v>69540</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>55973</v>
+        <v>55719</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>85300</v>
+        <v>84678</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2254488700030534</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1814630666330368</v>
+        <v>0.1806400148259126</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2765420145740533</v>
+        <v>0.2745250725684489</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>131</v>
@@ -2823,19 +2823,19 @@
         <v>141347</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>120431</v>
+        <v>122559</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>165311</v>
+        <v>166291</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.215175916588932</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1833344593329178</v>
+        <v>0.1865747876656099</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2516563497264593</v>
+        <v>0.2531484261753886</v>
       </c>
     </row>
     <row r="14">
@@ -2852,19 +2852,19 @@
         <v>78703</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>64454</v>
+        <v>62809</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95824</v>
+        <v>96234</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.2258734675157476</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.1849791724572584</v>
+        <v>0.1802593240755485</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.2750114648063948</v>
+        <v>0.2761858087028408</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>72</v>
@@ -2873,19 +2873,19 @@
         <v>74418</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>59589</v>
+        <v>60206</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>89153</v>
+        <v>90126</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.2412605637802078</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.1931869426966354</v>
+        <v>0.1951878942789923</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.2890312914519185</v>
+        <v>0.2921881610643619</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>144</v>
@@ -2894,19 +2894,19 @@
         <v>153120</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>130666</v>
+        <v>131208</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>174836</v>
+        <v>178940</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.233098710503071</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.198915248118569</v>
+        <v>0.1997404310094728</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.266156867958882</v>
+        <v>0.2724039098837536</v>
       </c>
     </row>
     <row r="15">
@@ -2998,19 +2998,19 @@
         <v>775430</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>736965</v>
+        <v>736094</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>813460</v>
+        <v>811631</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5488067250954894</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.5215832235587338</v>
+        <v>0.5209672801527633</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5757224754015332</v>
+        <v>0.574428203455467</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>553</v>
@@ -3019,19 +3019,19 @@
         <v>566341</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>535903</v>
+        <v>535114</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>602238</v>
+        <v>599133</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.5508484132985753</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.5212429399603222</v>
+        <v>0.5204753984036495</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.585763811623974</v>
+        <v>0.5827432406679827</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>1278</v>
@@ -3040,19 +3040,19 @@
         <v>1341771</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1293442</v>
+        <v>1292949</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>1396565</v>
+        <v>1392642</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.5496666416537865</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.5298683654346767</v>
+        <v>0.5296664016134647</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5721133539368397</v>
+        <v>0.5705064383321579</v>
       </c>
     </row>
     <row r="17">
@@ -3069,19 +3069,19 @@
         <v>319757</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285077</v>
+        <v>286040</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>353605</v>
+        <v>351513</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.2263065565631752</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2017617566240988</v>
+        <v>0.2024432178349549</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.250262446685879</v>
+        <v>0.24878133219386</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>219</v>
@@ -3090,19 +3090,19 @@
         <v>225151</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>199890</v>
+        <v>198826</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>252669</v>
+        <v>252824</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2189918980964876</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.194421920813606</v>
+        <v>0.1933870169700322</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.245757136089914</v>
+        <v>0.2459076378222106</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>510</v>
@@ -3111,19 +3111,19 @@
         <v>544908</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>505615</v>
+        <v>502003</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>588317</v>
+        <v>588813</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.2232257747257298</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2071288268839841</v>
+        <v>0.2056492661001119</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2410083341150377</v>
+        <v>0.2412117509106051</v>
       </c>
     </row>
     <row r="18">
@@ -3140,19 +3140,19 @@
         <v>317751</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>287991</v>
+        <v>286913</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>351910</v>
+        <v>352575</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.2248867183413354</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2038245429593187</v>
+        <v>0.203061623227767</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.2490623277067265</v>
+        <v>0.2495329817246691</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>232</v>
@@ -3161,19 +3161,19 @@
         <v>236633</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>207134</v>
+        <v>210608</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>260344</v>
+        <v>264795</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.2301596886049372</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2014675597347423</v>
+        <v>0.2048463438951109</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.2532223862582365</v>
+        <v>0.2575514894889884</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>530</v>
@@ -3182,19 +3182,19 @@
         <v>554384</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>513041</v>
+        <v>511857</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>598491</v>
+        <v>599237</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.2271075836204836</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2101712401180721</v>
+        <v>0.2096861902722099</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.2451762325773082</v>
+        <v>0.2454818852999024</v>
       </c>
     </row>
     <row r="19">
@@ -3525,19 +3525,19 @@
         <v>11488</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>5269</v>
+        <v>5966</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>19368</v>
+        <v>19709</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.28105698650592</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1288959746195366</v>
+        <v>0.1459642111047352</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.4738122135048651</v>
+        <v>0.4821759633538842</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>18</v>
@@ -3546,19 +3546,19 @@
         <v>12210</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>8168</v>
+        <v>8288</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16030</v>
+        <v>16320</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.5402668286927202</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3613940135393519</v>
+        <v>0.3667352744038421</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.7092832066669811</v>
+        <v>0.7221078607747697</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>28</v>
@@ -3567,19 +3567,19 @@
         <v>23698</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>16370</v>
+        <v>16050</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>32486</v>
+        <v>33250</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.373344709950055</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2578955326487239</v>
+        <v>0.2528475414127642</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.511787131551424</v>
+        <v>0.5238137240950781</v>
       </c>
     </row>
     <row r="5">
@@ -3596,19 +3596,19 @@
         <v>9525</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>4075</v>
+        <v>4154</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>17605</v>
+        <v>17160</v>
       </c>
       <c r="G5" s="6" t="n">
-        <v>0.2330107348541538</v>
+        <v>0.2330107348541539</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.099696269207747</v>
+        <v>0.101626558028077</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.4306984591704596</v>
+        <v>0.4198113674570771</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>5</v>
@@ -3617,19 +3617,19 @@
         <v>4376</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>1687</v>
+        <v>1371</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>8560</v>
+        <v>8962</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.19362529962615</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.07464812069719388</v>
+        <v>0.06064983252153926</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.3787612961674476</v>
+        <v>0.3965561624619569</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>13</v>
@@ -3638,19 +3638,19 @@
         <v>13900</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>7604</v>
+        <v>7690</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>21825</v>
+        <v>22926</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.2189881494330745</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1198000470624853</v>
+        <v>0.1211521200823776</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.3438352257453238</v>
+        <v>0.3611755153929734</v>
       </c>
     </row>
     <row r="6">
@@ -3667,19 +3667,19 @@
         <v>19863</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>11736</v>
+        <v>11868</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>28560</v>
+        <v>27586</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.4859322786399261</v>
+        <v>0.4859322786399263</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.2871215329465892</v>
+        <v>0.2903351175989232</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6986992755693837</v>
+        <v>0.6748741993078231</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>8</v>
@@ -3688,19 +3688,19 @@
         <v>6014</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>2740</v>
+        <v>2974</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>9852</v>
+        <v>10162</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.2661078716811295</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.121259185483074</v>
+        <v>0.1315757913863224</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.4359401105454663</v>
+        <v>0.4496468278277702</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>22</v>
@@ -3709,19 +3709,19 @@
         <v>25877</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>18355</v>
+        <v>17247</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>35782</v>
+        <v>35868</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.4076671406168705</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.2891667171321589</v>
+        <v>0.2717122185632829</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5637018975030724</v>
+        <v>0.5650717159640496</v>
       </c>
     </row>
     <row r="7">
@@ -3813,19 +3813,19 @@
         <v>120926</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>100791</v>
+        <v>102302</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>139493</v>
+        <v>142196</v>
       </c>
       <c r="G8" s="6" t="n">
-        <v>0.4137709441713072</v>
+        <v>0.4137709441713073</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.3448757844662214</v>
+        <v>0.3500457486397444</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.4773038134553244</v>
+        <v>0.4865502648017573</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>149</v>
@@ -3834,19 +3834,19 @@
         <v>118804</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>104195</v>
+        <v>105006</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>132816</v>
+        <v>134011</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.480019051765892</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.4209918543961908</v>
+        <v>0.4242666260478891</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5366305175799879</v>
+        <v>0.5414601140167642</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>249</v>
@@ -3855,19 +3855,19 @@
         <v>239730</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>216608</v>
+        <v>214057</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>265345</v>
+        <v>263054</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.4441484668046601</v>
+        <v>0.44414846680466</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.4013092845338351</v>
+        <v>0.39658327298651</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.4916041411858633</v>
+        <v>0.4873606532722256</v>
       </c>
     </row>
     <row r="9">
@@ -3884,19 +3884,19 @@
         <v>82890</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>68387</v>
+        <v>65605</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>104143</v>
+        <v>101398</v>
       </c>
       <c r="G9" s="6" t="n">
-        <v>0.2836240430216429</v>
+        <v>0.283624043021643</v>
       </c>
       <c r="H9" s="6" t="n">
-        <v>0.2339992081217441</v>
+        <v>0.2244809203237</v>
       </c>
       <c r="I9" s="6" t="n">
-        <v>0.3563458825914495</v>
+        <v>0.3469544720834096</v>
       </c>
       <c r="J9" s="5" t="n">
         <v>87</v>
@@ -3905,19 +3905,19 @@
         <v>64997</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>53686</v>
+        <v>52173</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>78347</v>
+        <v>77845</v>
       </c>
       <c r="N9" s="6" t="n">
         <v>0.2626166094923559</v>
       </c>
       <c r="O9" s="6" t="n">
-        <v>0.2169126540506309</v>
+        <v>0.210799169099762</v>
       </c>
       <c r="P9" s="6" t="n">
-        <v>0.3165540991412294</v>
+        <v>0.3145267374684043</v>
       </c>
       <c r="Q9" s="5" t="n">
         <v>156</v>
@@ -3926,19 +3926,19 @@
         <v>147888</v>
       </c>
       <c r="S9" s="5" t="n">
-        <v>124301</v>
+        <v>126987</v>
       </c>
       <c r="T9" s="5" t="n">
-        <v>169277</v>
+        <v>170797</v>
       </c>
       <c r="U9" s="6" t="n">
         <v>0.2739912578648223</v>
       </c>
       <c r="V9" s="6" t="n">
-        <v>0.2302928054695832</v>
+        <v>0.2352687709622246</v>
       </c>
       <c r="W9" s="6" t="n">
-        <v>0.3136184889186028</v>
+        <v>0.316434815047194</v>
       </c>
     </row>
     <row r="10">
@@ -3955,19 +3955,19 @@
         <v>88437</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>72081</v>
+        <v>70773</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>107794</v>
+        <v>108324</v>
       </c>
       <c r="G10" s="6" t="n">
-        <v>0.3026050128070498</v>
+        <v>0.3026050128070499</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2466398507717594</v>
+        <v>0.2421638516842056</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3688382187409037</v>
+        <v>0.3706507529908989</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>83</v>
@@ -3976,19 +3976,19 @@
         <v>63697</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>53134</v>
+        <v>52548</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>77950</v>
+        <v>77828</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.2573643387417521</v>
+        <v>0.257364338741752</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2146830208922482</v>
+        <v>0.2123164058923453</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3149490764792253</v>
+        <v>0.3144587239768634</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>155</v>
@@ -3997,19 +3997,19 @@
         <v>152135</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>132060</v>
+        <v>131475</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>176827</v>
+        <v>177632</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2818602753305176</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.2446676545633219</v>
+        <v>0.2435832452954263</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3276066140703482</v>
+        <v>0.3290979329136494</v>
       </c>
     </row>
     <row r="11">
@@ -4101,19 +4101,19 @@
         <v>54064</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>41247</v>
+        <v>40603</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>68703</v>
+        <v>68614</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.3915168946830869</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.2986987862961031</v>
+        <v>0.2940358751238251</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.4975330212644676</v>
+        <v>0.4968853339868318</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>58</v>
@@ -4122,19 +4122,19 @@
         <v>45977</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>36335</v>
+        <v>36242</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>54980</v>
+        <v>55427</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.4036791373153336</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.3190262251015979</v>
+        <v>0.3182043796584256</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.4827316238823603</v>
+        <v>0.4866524113614479</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>100</v>
@@ -4143,19 +4143,19 @@
         <v>100040</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>83344</v>
+        <v>84743</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>116637</v>
+        <v>117331</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.3970141411624228</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.3307538783819689</v>
+        <v>0.3363064611365838</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.4628785255273323</v>
+        <v>0.4656310138049657</v>
       </c>
     </row>
     <row r="13">
@@ -4172,19 +4172,19 @@
         <v>37892</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>27186</v>
+        <v>27560</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>51531</v>
+        <v>51055</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.274405190951011</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.1968710008535814</v>
+        <v>0.1995807285475672</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3731752450185047</v>
+        <v>0.3697269783256496</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>33</v>
@@ -4193,19 +4193,19 @@
         <v>22818</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>15915</v>
+        <v>16731</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>31525</v>
+        <v>31887</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2003409366582651</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.1397337653970906</v>
+        <v>0.1468973185935443</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2767906313850054</v>
+        <v>0.279975107804677</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>65</v>
@@ -4214,19 +4214,19 @@
         <v>60710</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>47448</v>
+        <v>47605</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>75152</v>
+        <v>75724</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2409286789732014</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.1882990871264946</v>
+        <v>0.1889207731117903</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.298241896843751</v>
+        <v>0.3005136564391739</v>
       </c>
     </row>
     <row r="14">
@@ -4243,19 +4243,19 @@
         <v>46132</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>34131</v>
+        <v>35183</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59083</v>
+        <v>60142</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.334077914365902</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.2471699430199369</v>
+        <v>0.2547893155103307</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.4278679958517572</v>
+        <v>0.4355311297026448</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>53</v>
@@ -4264,19 +4264,19 @@
         <v>45100</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36375</v>
+        <v>35822</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>55816</v>
+        <v>55386</v>
       </c>
       <c r="N14" s="6" t="n">
-        <v>0.3959799260264013</v>
+        <v>0.3959799260264012</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.3193754454735616</v>
+        <v>0.3145174886978222</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.4900717575224519</v>
+        <v>0.4862921569804665</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>92</v>
@@ -4285,19 +4285,19 @@
         <v>91232</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>74794</v>
+        <v>75257</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>107980</v>
+        <v>107733</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.3620571798643759</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.296823154126176</v>
+        <v>0.2986595988814395</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.4285238754211446</v>
+        <v>0.4275428216693627</v>
       </c>
     </row>
     <row r="15">
@@ -4389,19 +4389,19 @@
         <v>186478</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>162315</v>
+        <v>162169</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>212052</v>
+        <v>213167</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3957371549505922</v>
+        <v>0.3957371549505923</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.344458244198092</v>
+        <v>0.3441492397787793</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4500095282735813</v>
+        <v>0.4523759079423374</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>225</v>
@@ -4410,19 +4410,19 @@
         <v>176990</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>158377</v>
+        <v>159722</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>194883</v>
+        <v>195299</v>
       </c>
       <c r="N16" s="6" t="n">
-        <v>0.4609221198754569</v>
+        <v>0.4609221198754568</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.4124486453974134</v>
+        <v>0.4159517441710456</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5075187279416602</v>
+        <v>0.5086010149513437</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>377</v>
@@ -4431,19 +4431,19 @@
         <v>363469</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>332222</v>
+        <v>331366</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396940</v>
+        <v>391955</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4250054557645195</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3884677778824311</v>
+        <v>0.3874679848179215</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4641434766418456</v>
+        <v>0.4583140816574485</v>
       </c>
     </row>
     <row r="17">
@@ -4460,19 +4460,19 @@
         <v>130307</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>109505</v>
+        <v>110019</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>155855</v>
+        <v>154034</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.2765320231952293</v>
+        <v>0.2765320231952294</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.2323873879711207</v>
+        <v>0.2334783078999731</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.330748997366185</v>
+        <v>0.3268846492844021</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>125</v>
@@ -4481,19 +4481,19 @@
         <v>92191</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>77963</v>
+        <v>77525</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>107854</v>
+        <v>107895</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.2400849524047448</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.2030325215346187</v>
+        <v>0.2018920955390861</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.2808768880792885</v>
+        <v>0.2809833810782837</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>234</v>
@@ -4502,19 +4502,19 @@
         <v>222498</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>194582</v>
+        <v>196917</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>253238</v>
+        <v>250024</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.260167147753293</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.2275253448145061</v>
+        <v>0.230255540402016</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.2961123891890258</v>
+        <v>0.2923542078546966</v>
       </c>
     </row>
     <row r="18">
@@ -4531,19 +4531,19 @@
         <v>154432</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>131038</v>
+        <v>131267</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>178253</v>
+        <v>177966</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.3277308218541784</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.2780832708885587</v>
+        <v>0.2785707558440085</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.3782820788396898</v>
+        <v>0.3776724581762587</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>144</v>
@@ -4552,19 +4552,19 @@
         <v>114811</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>98600</v>
+        <v>98302</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>132247</v>
+        <v>131464</v>
       </c>
       <c r="N18" s="6" t="n">
-        <v>0.2989929277197984</v>
+        <v>0.2989929277197983</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.2567765467746382</v>
+        <v>0.256000868462268</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.3444009797154803</v>
+        <v>0.3423619537015343</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>269</v>
@@ -4573,19 +4573,19 @@
         <v>269244</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>237767</v>
+        <v>241763</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>300531</v>
+        <v>299010</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.3148273964821875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.2780213319420105</v>
+        <v>0.282694378855559</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.3514119636645786</v>
+        <v>0.3496333964440726</v>
       </c>
     </row>
     <row r="19">
